--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value377.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value377.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.433482688879016</v>
+        <v>1.127483129501343</v>
       </c>
       <c r="B1">
-        <v>2.315445090271333</v>
+        <v>3.747226238250732</v>
       </c>
       <c r="C1">
-        <v>2.448613223451704</v>
+        <v>3.146496772766113</v>
       </c>
       <c r="D1">
-        <v>1.918048183535052</v>
+        <v>2.04565954208374</v>
       </c>
       <c r="E1">
-        <v>0.7052285327386233</v>
+        <v>1.170873522758484</v>
       </c>
     </row>
   </sheetData>
